--- a/sequence_matches.xlsx
+++ b/sequence_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAN394\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE73C7D-C497-4EA9-9CF5-CE624BD02E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AEE73C7D-C497-4EA9-9CF5-CE624BD02E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06CE113-908F-41FA-8198-9DCED21E3682}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1890" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="301">
   <si>
     <t>OG0000000</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Putative ribonuclease 3</t>
   </si>
   <si>
-    <t>Putative FAD-linked sulfhydryl oxidase 088</t>
-  </si>
-  <si>
     <t>Immediate-early protein ICP-46</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t xml:space="preserve"> Deoxycytidine kinase</t>
   </si>
   <si>
-    <t>FAD-linked sulfhydryl oxidase</t>
-  </si>
-  <si>
     <t>DNA (cytosine-5)-methyltransferase</t>
   </si>
   <si>
@@ -947,13 +941,16 @@
   </si>
   <si>
     <t>Putative gene identity_family output</t>
+  </si>
+  <si>
+    <t>Erv1 / Alr family</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,12 +965,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1330,40 +1321,40 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1383,18 +1374,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1403,18 +1394,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1423,18 +1414,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1443,7 +1434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1483,18 +1474,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -1503,7 +1494,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1523,18 +1514,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1543,18 +1534,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1563,12 +1554,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1583,18 +1574,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1603,12 +1594,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1623,12 +1614,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1643,18 +1634,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1663,7 +1654,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1683,7 +1674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1703,18 +1694,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1723,7 +1714,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1743,18 +1734,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1763,12 +1754,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1783,12 +1774,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1803,92 +1794,92 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -1900,376 +1891,376 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2280,1129 +2271,1129 @@
         <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s">
         <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C70" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C75" t="s">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C78" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
         <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
         <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C83" t="s">
         <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
         <v>82</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s">
         <v>93</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" t="s">
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s">
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C104" t="s">
         <v>102</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
         <v>110</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
@@ -3410,6 +3401,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sequence_matches.xlsx
+++ b/sequence_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AEE73C7D-C497-4EA9-9CF5-CE624BD02E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06CE113-908F-41FA-8198-9DCED21E3682}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{AEE73C7D-C497-4EA9-9CF5-CE624BD02E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2137C4B8-DED8-41F6-8F28-413480C21B98}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,6 @@
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={D03ED0BE-2578-4A1A-BADF-798B07BE20D9}</author>
-  </authors>
-  <commentList>
-    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A number of hits for S-adenosylmethionine synthase too.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,18 +949,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -993,13 +969,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,9 +995,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Hannaford, Polly (AAHL, Geelong ACDP)" id="{703703E6-9D9B-47AF-A5A0-AB7429D54F18}" userId="S::han394@csiro.au::ce3b099b-feb8-492e-85ff-2cbd0f66ca7f" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,49 +1283,41 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B53" dT="2025-03-20T09:11:27.73" personId="{703703E6-9D9B-47AF-A5A0-AB7429D54F18}" id="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
-    <text>A number of hits for S-adenosylmethionine synthase too.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -1358,19 +1325,19 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1378,19 +1345,19 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1398,19 +1365,19 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1418,19 +1385,19 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1438,19 +1405,19 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1458,19 +1425,19 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1478,19 +1445,19 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1498,19 +1465,19 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1518,19 +1485,19 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1538,19 +1505,19 @@
       <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1558,19 +1525,19 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1578,19 +1545,19 @@
       <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1598,19 +1565,19 @@
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1618,19 +1585,19 @@
       <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1638,19 +1605,19 @@
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1658,19 +1625,19 @@
       <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1678,19 +1645,19 @@
       <c r="A18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1698,19 +1665,19 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1718,19 +1685,19 @@
       <c r="A20" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1738,19 +1705,19 @@
       <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1758,19 +1725,19 @@
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1778,19 +1745,19 @@
       <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1798,19 +1765,19 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>300</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -1818,19 +1785,19 @@
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1838,19 +1805,19 @@
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1858,19 +1825,19 @@
       <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1878,19 +1845,19 @@
       <c r="A28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1898,19 +1865,19 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1918,19 +1885,19 @@
       <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1938,19 +1905,19 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1958,13 +1925,13 @@
       <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E32" t="s">
@@ -1975,13 +1942,13 @@
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E33" t="s">
@@ -1992,13 +1959,13 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E34" t="s">
@@ -2009,13 +1976,13 @@
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E35" t="s">
@@ -2026,13 +1993,13 @@
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E36" t="s">
@@ -2043,13 +2010,13 @@
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E37" t="s">
@@ -2060,13 +2027,13 @@
       <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E38" t="s">
@@ -2077,13 +2044,13 @@
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E39" t="s">
@@ -2094,13 +2061,13 @@
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E40" t="s">
@@ -2111,13 +2078,13 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E41" t="s">
@@ -2128,13 +2095,13 @@
       <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E42" t="s">
@@ -2145,13 +2112,13 @@
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E43" t="s">
@@ -2162,13 +2129,13 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E44" t="s">
@@ -2179,13 +2146,13 @@
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E45" t="s">
@@ -2196,13 +2163,13 @@
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E46" t="s">
@@ -2213,13 +2180,13 @@
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E47" t="s">
@@ -2230,13 +2197,13 @@
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>265</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E48" t="s">
@@ -2247,13 +2214,13 @@
       <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E49" t="s">
@@ -2264,13 +2231,13 @@
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E50" t="s">
@@ -2281,13 +2248,13 @@
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E51" t="s">
@@ -2298,13 +2265,13 @@
       <c r="A52" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E52" t="s">
@@ -2315,13 +2282,13 @@
       <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E53" t="s">
@@ -2332,13 +2299,13 @@
       <c r="A54" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E54" t="s">
@@ -2349,13 +2316,13 @@
       <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E55" t="s">
@@ -2366,13 +2333,13 @@
       <c r="A56" t="s">
         <v>87</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>175</v>
       </c>
       <c r="E56" t="s">
@@ -2383,13 +2350,13 @@
       <c r="A57" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>177</v>
       </c>
       <c r="E57" t="s">
@@ -2400,13 +2367,13 @@
       <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E58" t="s">
@@ -2417,13 +2384,13 @@
       <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>179</v>
       </c>
       <c r="E59" t="s">
@@ -2434,13 +2401,13 @@
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E60" t="s">
@@ -2451,13 +2418,13 @@
       <c r="A61" t="s">
         <v>78</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E61" t="s">
@@ -2468,13 +2435,13 @@
       <c r="A62" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E62" t="s">
@@ -2485,13 +2452,13 @@
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>183</v>
       </c>
       <c r="E63" t="s">
@@ -2502,13 +2469,13 @@
       <c r="A64" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E64" t="s">
@@ -2519,13 +2486,13 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E65" t="s">
@@ -2536,13 +2503,13 @@
       <c r="A66" t="s">
         <v>82</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C66" t="s">
         <v>83</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>204</v>
       </c>
       <c r="E66" t="s">
@@ -2553,13 +2520,13 @@
       <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E67" t="s">
@@ -2570,13 +2537,13 @@
       <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>185</v>
       </c>
       <c r="E68" t="s">
@@ -2587,13 +2554,13 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C69" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E69" t="s">
@@ -2604,13 +2571,13 @@
       <c r="A70" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C70" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E70" t="s">
@@ -2621,13 +2588,13 @@
       <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C71" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>188</v>
       </c>
       <c r="E71" t="s">
@@ -2638,13 +2605,13 @@
       <c r="A72" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E72" t="s">
@@ -2655,13 +2622,13 @@
       <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C73" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>190</v>
       </c>
       <c r="E73" t="s">
@@ -2672,13 +2639,13 @@
       <c r="A74" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C74" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E74" t="s">
@@ -2689,13 +2656,13 @@
       <c r="A75" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C75" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E75" t="s">
@@ -2706,13 +2673,13 @@
       <c r="A76" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E76" t="s">
@@ -2723,13 +2690,13 @@
       <c r="A77" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C77" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>194</v>
       </c>
       <c r="E77" t="s">
@@ -2740,13 +2707,13 @@
       <c r="A78" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C78" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E78" t="s">
@@ -2757,13 +2724,13 @@
       <c r="A79" t="s">
         <v>47</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C79" t="s">
         <v>75</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E79" t="s">
@@ -2774,13 +2741,13 @@
       <c r="A80" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C80" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E80" t="s">
@@ -2791,13 +2758,13 @@
       <c r="A81" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C81" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E81" t="s">
@@ -2808,13 +2775,13 @@
       <c r="A82" t="s">
         <v>66</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C82" t="s">
         <v>79</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E82" t="s">
@@ -2825,13 +2792,13 @@
       <c r="A83" t="s">
         <v>68</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C83" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>201</v>
       </c>
       <c r="E83" t="s">
@@ -2842,13 +2809,13 @@
       <c r="A84" t="s">
         <v>102</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>202</v>
       </c>
       <c r="E84" t="s">
@@ -2859,13 +2826,13 @@
       <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C85" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E85" t="s">
@@ -2876,13 +2843,13 @@
       <c r="A86" t="s">
         <v>1</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E86" t="s">
@@ -2893,13 +2860,13 @@
       <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E87" t="s">
@@ -2910,13 +2877,13 @@
       <c r="A88" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>207</v>
       </c>
       <c r="E88" t="s">
@@ -2927,13 +2894,13 @@
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E89" t="s">
@@ -2944,13 +2911,13 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E90" t="s">
@@ -2961,13 +2928,13 @@
       <c r="A91" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>210</v>
       </c>
       <c r="E91" t="s">
@@ -2978,13 +2945,13 @@
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E92" t="s">
@@ -2995,13 +2962,13 @@
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>212</v>
       </c>
       <c r="E93" t="s">
@@ -3012,13 +2979,13 @@
       <c r="A94" t="s">
         <v>45</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E94" t="s">
@@ -3029,13 +2996,13 @@
       <c r="A95" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C95" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E95" t="s">
@@ -3046,13 +3013,13 @@
       <c r="A96" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E96" t="s">
@@ -3063,13 +3030,13 @@
       <c r="A97" t="s">
         <v>67</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C97" t="s">
         <v>95</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>216</v>
       </c>
       <c r="E97" t="s">
@@ -3080,13 +3047,13 @@
       <c r="A98" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E98" t="s">
@@ -3097,13 +3064,13 @@
       <c r="A99" t="s">
         <v>71</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E99" t="s">
@@ -3114,13 +3081,13 @@
       <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C100" t="s">
         <v>98</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E100" t="s">
@@ -3131,13 +3098,13 @@
       <c r="A101" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E101" t="s">
@@ -3148,13 +3115,13 @@
       <c r="A102" t="s">
         <v>83</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E102" t="s">
@@ -3165,13 +3132,13 @@
       <c r="A103" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>222</v>
       </c>
       <c r="E103" t="s">
@@ -3182,13 +3149,13 @@
       <c r="A104" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C104" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E104" t="s">
@@ -3199,13 +3166,13 @@
       <c r="A105" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E105" t="s">
@@ -3216,13 +3183,13 @@
       <c r="A106" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E106" t="s">
@@ -3233,13 +3200,13 @@
       <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>226</v>
       </c>
       <c r="E107" t="s">
@@ -3250,13 +3217,13 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E108" t="s">
@@ -3267,13 +3234,13 @@
       <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C109" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E109" t="s">
@@ -3284,13 +3251,13 @@
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E110" t="s">
@@ -3301,13 +3268,13 @@
       <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E111" t="s">
@@ -3318,13 +3285,13 @@
       <c r="A112" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C112" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E112" t="s">
@@ -3335,13 +3302,13 @@
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>232</v>
       </c>
       <c r="E113" t="s">
@@ -3352,13 +3319,13 @@
       <c r="A114" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E114" t="s">
@@ -3369,13 +3336,13 @@
       <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="3" t="s">
         <v>234</v>
       </c>
       <c r="E115" t="s">
@@ -3386,13 +3353,13 @@
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="3" t="s">
         <v>235</v>
       </c>
       <c r="E116" t="s">
@@ -3402,6 +3369,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sequence_matches.xlsx
+++ b/sequence_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{AEE73C7D-C497-4EA9-9CF5-CE624BD02E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2137C4B8-DED8-41F6-8F28-413480C21B98}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AEE73C7D-C497-4EA9-9CF5-CE624BD02E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A570318-5D2E-420B-9A49-25CA6B96EBED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1488" yWindow="1308" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -969,12 +969,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,2079 +1285,2079 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B15" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D15" t="s">
         <v>127</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B55" t="s">
         <v>284</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D55" t="s">
         <v>176</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F55" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
         <v>128</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
         <v>128</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>178</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>179</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>179</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>269</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>180</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>277</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" t="s">
         <v>181</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>289</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>182</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>290</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>183</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>282</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>184</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
         <v>270</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C80" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D80" t="s">
         <v>199</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E80" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="3" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
         <v>279</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C85" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D85" t="s">
         <v>204</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E85" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C74" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>236</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>205</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>292</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" t="s">
         <v>206</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>207</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>207</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>285</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" t="s">
         <v>208</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" t="s">
         <v>209</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>254</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" t="s">
         <v>210</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" t="s">
         <v>211</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" t="s">
         <v>212</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>213</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" t="s">
         <v>213</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>214</v>
       </c>
       <c r="C95" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" t="s">
         <v>214</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" t="s">
         <v>215</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>271</v>
       </c>
       <c r="C97" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" t="s">
         <v>216</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" t="s">
         <v>217</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>274</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" t="s">
         <v>218</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>219</v>
       </c>
       <c r="C100" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" t="s">
         <v>219</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>220</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" t="s">
         <v>220</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>221</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" t="s">
         <v>221</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" t="s">
         <v>222</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>281</v>
       </c>
       <c r="C104" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" t="s">
         <v>223</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>283</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" t="s">
         <v>224</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>286</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>226</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>226</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>293</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" t="s">
         <v>227</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>291</v>
       </c>
       <c r="C109" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" t="s">
         <v>228</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>295</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" t="s">
         <v>229</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>230</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" t="s">
         <v>230</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>294</v>
       </c>
       <c r="C112" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" t="s">
         <v>231</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>232</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" t="s">
         <v>232</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>296</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" t="s">
         <v>233</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>234</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" t="s">
         <v>234</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>235</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" t="s">
         <v>235</v>
       </c>
       <c r="E116" t="s">
@@ -3367,6 +3365,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
